--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECF0E54-34E3-41C4-864D-9F796613FDE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業報告書" sheetId="1" r:id="rId1"/>
@@ -42,24 +43,12 @@
     <definedName name="SC_ZIPCODE">#REF!</definedName>
     <definedName name="工事番号と工事件名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -168,13 +157,65 @@
     <rPh sb="9" eb="13">
       <t>カブシキガイシャ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岡田</t>
+    <rPh sb="0" eb="2">
+      <t>オカダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑥C表作成　メソッドの調査・まとめ</t>
+    <rPh sb="2" eb="5">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑥C表作成　メソッド・マクロの調査・まとめ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑥C表作成　マクロの調査・まとめ
+⑧解析用データ変換　マクロの調査・まとめ</t>
+    <rPh sb="18" eb="21">
+      <t>カイセキヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岡田</t>
+    <rPh sb="0" eb="2">
+      <t>オカダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑧解析用データ変換　マクロの調査・まとめ
+⑩各種マクロ　マクロの調査・まとめ
+⑫金型のセクター_サイドプレート作図　マクロの調査・まとめ</t>
+    <rPh sb="22" eb="24">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カナガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑫金型のセクター_サイドプレート作図　マクロの調査・まとめ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
@@ -455,28 +496,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Calc Currency (0)" xfId="1"/>
-    <cellStyle name="Header1" xfId="2"/>
-    <cellStyle name="Header2" xfId="3"/>
-    <cellStyle name="Normal_#18-Internet" xfId="4"/>
-    <cellStyle name="桁区切り 2" xfId="5"/>
+    <cellStyle name="Calc Currency (0)" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Header1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Header2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_#18-Internet" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="桁区切り 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -578,7 +605,7 @@
         <xdr:cNvPr id="2" name="Group 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -599,7 +626,7 @@
           <xdr:cNvPr id="3" name="Picture 7" descr="logo_trans02">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -645,7 +672,7 @@
           <xdr:cNvPr id="4" name="Rectangle 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -717,7 +744,7 @@
         <xdr:cNvPr id="5" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -799,7 +826,7 @@
         <xdr:cNvPr id="6" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,6 +986,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -994,6 +1038,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1169,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1178,7 +1239,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1250,7 +1311,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1291,51 +1352,91 @@
       <c r="B11" s="18">
         <v>1</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="21"/>
+      <c r="C11" s="19">
+        <v>44727</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B12" s="18">
         <v>2</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="19">
+        <v>44728</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="18">
         <v>3</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="19">
+        <v>44729</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G13" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="18">
         <v>4</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="19">
+        <v>44732</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="18">
         <v>5</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="19">
+        <v>44733</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="22"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="18">
@@ -1549,43 +1650,33 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D13:D20">
-    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="D14:D20">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C19 B12:B36">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="B11:C11 B12:B36 C12:C19">
+    <cfRule type="expression" dxfId="7" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="D11:D13">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D28">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1614,15 +1705,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
@@ -1630,7 +1712,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -1849,15 +1931,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1874,7 +1957,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1891,4 +1974,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECF0E54-34E3-41C4-864D-9F796613FDE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0993DB5-5EC8-4B47-A82C-B6C8899C6C52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -209,6 +209,30 @@
   </si>
   <si>
     <t>⑫金型のセクター_サイドプレート作図　マクロの調査・まとめ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑫金型のセクター_サイドプレート作図　マクロの調査・まとめ
+①円弧配列 メソッド・マクロの調査・まとめ</t>
+    <rPh sb="31" eb="35">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑦承認・法規申請図　メソッドの調査・まとめ</t>
+    <rPh sb="1" eb="3">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シンセイズ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チョウサ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1237,9 +1261,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1311,7 +1335,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1438,25 +1462,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="18">
         <v>6</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="19">
+        <v>44734</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="18">
         <v>7</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="19">
+        <v>44735</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18">

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0993DB5-5EC8-4B47-A82C-B6C8899C6C52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99246265-BF84-4302-8365-AE4525D95870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -233,6 +233,11 @@
     <rPh sb="15" eb="17">
       <t>チョウサ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑨マクロの調査・まとめ
+⑫マクロの調査・まとめ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1261,9 +1266,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1335,7 +1340,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1498,15 +1503,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18">
         <v>8</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="19">
+        <v>44736</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="18">
@@ -1753,6 +1766,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -1971,15 +1993,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
@@ -1998,6 +2011,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2014,12 +2035,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99246265-BF84-4302-8365-AE4525D95870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3979FA-4862-47DC-B143-A92D72AF1493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -238,6 +238,13 @@
   <si>
     <t>⑨マクロの調査・まとめ
 ⑫マクロの調査・まとめ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定例会議</t>
+    <rPh sb="0" eb="4">
+      <t>テイレイカイギ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1266,9 +1273,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1340,7 +1347,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1525,11 +1532,19 @@
       <c r="B19" s="18">
         <v>9</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="19">
+        <v>44741</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="18">
@@ -1766,15 +1781,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -1993,6 +1999,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
@@ -2011,14 +2026,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2035,4 +2042,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3979FA-4862-47DC-B143-A92D72AF1493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F5423F-573E-4146-92FB-D5C6A2B3306E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -245,6 +245,10 @@
     <rPh sb="0" eb="4">
       <t>テイレイカイギ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑬マクロの調査・まとめ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1275,7 +1279,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1347,7 +1351,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1550,11 +1554,19 @@
       <c r="B20" s="18">
         <v>10</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="21"/>
+      <c r="C20" s="19">
+        <v>44748</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="18">
@@ -1781,6 +1793,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -1999,15 +2020,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
@@ -2026,6 +2038,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2042,12 +2062,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F5423F-573E-4146-92FB-D5C6A2B3306E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE4AE4-C54A-418E-A58D-B3A8D897EE4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -249,6 +249,20 @@
   </si>
   <si>
     <t>⑬マクロの調査・まとめ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑩⑪工数調査</t>
+    <rPh sb="2" eb="6">
+      <t>コウスウチョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑪工数調査</t>
+    <rPh sb="1" eb="5">
+      <t>コウスウチョウサ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1279,7 +1293,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1351,7 +1365,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1572,21 +1586,37 @@
       <c r="B21" s="18">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="21"/>
+      <c r="C21" s="19">
+        <v>44755</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="F21" s="22"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="20">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="18">
         <v>12</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="21"/>
+      <c r="C22" s="19">
+        <v>44756</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="18">
@@ -1730,7 +1760,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D14:D20">
+  <conditionalFormatting sqref="D14:D22">
     <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1745,17 +1775,17 @@
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C20:C21">
     <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D28">
+  <conditionalFormatting sqref="D23:D28">
     <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
+  <conditionalFormatting sqref="C22:C27">
     <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1785,23 +1815,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2020,32 +2033,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2062,4 +2067,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE4AE4-C54A-418E-A58D-B3A8D897EE4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286C1BF1-17DD-47FB-90F9-24DD2E72C0F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -262,6 +262,16 @@
     <t>⑪工数調査</t>
     <rPh sb="1" eb="5">
       <t>コウスウチョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑪⑬工数調査</t>
+    <rPh sb="2" eb="4">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1293,7 +1303,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1365,7 +1375,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1622,11 +1632,19 @@
       <c r="B23" s="18">
         <v>13</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="21"/>
+      <c r="C23" s="19">
+        <v>44757</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="F23" s="22"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18">
@@ -1760,7 +1778,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D14:D22">
+  <conditionalFormatting sqref="D14:D23">
     <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1780,7 +1798,7 @@
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D28">
+  <conditionalFormatting sqref="D24:D28">
     <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1815,6 +1833,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2033,15 +2060,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2051,6 +2069,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2065,14 +2091,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286C1BF1-17DD-47FB-90F9-24DD2E72C0F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D20EC1-AD3D-472C-B87A-43FBE15138EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -273,6 +273,10 @@
     <rPh sb="4" eb="6">
       <t>チョウサ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑬工数調査</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1301,9 +1305,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1375,7 +1379,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1650,11 +1654,19 @@
       <c r="B24" s="18">
         <v>14</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="21"/>
+      <c r="C24" s="19">
+        <v>44761</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="18">
@@ -1778,7 +1790,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D14:D23">
+  <conditionalFormatting sqref="D14:D24">
     <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1798,7 +1810,7 @@
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D28">
+  <conditionalFormatting sqref="D25:D28">
     <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1842,6 +1854,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2060,14 +2080,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
@@ -2077,6 +2089,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2093,21 +2122,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D20EC1-AD3D-472C-B87A-43FBE15138EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F754D8-936C-4E68-ADDA-5FCDDA082ED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="32">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -277,6 +277,17 @@
   </si>
   <si>
     <t>⑬工数調査</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑫工数調査</t>
+    <rPh sb="1" eb="5">
+      <t>コウスウチョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑫工数調査</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1305,9 +1316,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1379,7 +1390,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1672,21 +1683,37 @@
       <c r="B25" s="18">
         <v>15</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="21"/>
+      <c r="C25" s="19">
+        <v>44762</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="18">
         <v>16</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="21"/>
+      <c r="C26" s="19">
+        <v>44763</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="20">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="18">
@@ -1790,7 +1817,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D14:D24">
+  <conditionalFormatting sqref="D14:D26">
     <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1810,7 +1837,7 @@
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D28">
+  <conditionalFormatting sqref="D27:D28">
     <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1854,14 +1881,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2080,6 +2099,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
@@ -2089,23 +2116,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2122,4 +2132,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F754D8-936C-4E68-ADDA-5FCDDA082ED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6331DF3E-A49F-4D5C-8250-1F6955203E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1316,9 +1316,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1715,15 +1715,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="18">
         <v>17</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="21"/>
+      <c r="C27" s="19">
+        <v>44764</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="20">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
@@ -1817,7 +1825,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D14:D26">
+  <conditionalFormatting sqref="D14:D27">
     <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1837,7 +1845,7 @@
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D28">
+  <conditionalFormatting sqref="D28">
     <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1881,6 +1889,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2099,14 +2115,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
@@ -2116,6 +2124,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2132,21 +2157,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6331DF3E-A49F-4D5C-8250-1F6955203E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951C54F1-638B-419F-BBD8-069BC9E8FBD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -288,6 +288,16 @@
   </si>
   <si>
     <t>⑫工数調査</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定例会議</t>
+    <rPh sb="0" eb="2">
+      <t>テイレイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイギ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1318,7 +1328,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1390,7 +1400,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1737,11 +1747,19 @@
       <c r="B28" s="18">
         <v>18</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="21"/>
+      <c r="C28" s="19">
+        <v>44769</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
@@ -1825,7 +1843,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D14:D27">
+  <conditionalFormatting sqref="D14:D28">
     <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1845,12 +1863,7 @@
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C27">
+  <conditionalFormatting sqref="C22:C28">
     <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1862,11 +1875,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C36">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1889,14 +1897,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2115,6 +2115,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
@@ -2124,23 +2132,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2157,4 +2148,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951C54F1-638B-419F-BBD8-069BC9E8FBD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB16DF4-9CC8-44AF-B663-3BE184E332ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -297,6 +297,46 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ATB図面C表作成自動化資料作成</t>
+    <rPh sb="3" eb="5">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>シリョウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円弧配列　マクロ詳細調査</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円弧配列C表作成マクロ詳細調査</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円弧配列C表作成マクロ詳細調査</t>
+    <rPh sb="0" eb="4">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -592,21 +632,7 @@
     <cellStyle name="桁区切り 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1326,9 +1352,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1400,7 +1426,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1761,65 +1787,113 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
         <v>19</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="21"/>
+      <c r="C29" s="19">
+        <v>44825</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F29" s="22"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>20</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="21"/>
+      <c r="C30" s="19">
+        <v>44826</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F30" s="22"/>
-      <c r="G30" s="20"/>
+      <c r="G30" s="20">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
         <v>21</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="21"/>
+      <c r="C31" s="19">
+        <v>44830</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="F31" s="22"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="20">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="18">
         <v>22</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="21"/>
+      <c r="C32" s="19">
+        <v>44831</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F32" s="22"/>
-      <c r="G32" s="20"/>
+      <c r="G32" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>23</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="21"/>
+      <c r="C33" s="19">
+        <v>44832</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F33" s="22"/>
-      <c r="G33" s="20"/>
+      <c r="G33" s="20">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>24</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="21"/>
+      <c r="C34" s="19">
+        <v>44833</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="F34" s="22"/>
-      <c r="G34" s="20"/>
+      <c r="G34" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="18">
@@ -1843,38 +1917,38 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D14:D28">
-    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="D14:D35">
+    <cfRule type="expression" dxfId="6" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 B12:B36 C12:C19">
-    <cfRule type="expression" dxfId="7" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D13">
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C21">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C28">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="C22:C35">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D36">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="C36">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1897,6 +1971,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2115,14 +2197,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
@@ -2132,6 +2206,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2148,21 +2239,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_岡田.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P-129\source\repos\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB16DF4-9CC8-44AF-B663-3BE184E332ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AB6C3C-411C-4EA0-AB29-ADDA5463769E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -324,18 +324,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>円弧配列C表作成マクロ詳細調査</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>円弧配列C表作成マクロ詳細調査</t>
+    <t>C表作成　マクロ詳細調査</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円弧配列C表作成　マクロ詳細調査</t>
     <rPh sb="0" eb="4">
       <t>エンコハイレツ</t>
     </rPh>
     <rPh sb="5" eb="8">
       <t>ヒョウサクセイ</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="14" eb="16">
       <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1354,7 +1354,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1899,11 +1899,19 @@
       <c r="B35" s="18">
         <v>25</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="21"/>
+      <c r="C35" s="19">
+        <v>44834</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="F35" s="22"/>
-      <c r="G35" s="20"/>
+      <c r="G35" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
@@ -1971,14 +1979,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -2197,6 +2197,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
@@ -2206,23 +2214,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2239,4 +2230,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>